--- a/report/gantt.xlsx
+++ b/report/gantt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
     <t>Matrix Generator</t>
   </si>
   <si>
-    <t>keyword filter</t>
-  </si>
-  <si>
     <t>Data acquisition</t>
+  </si>
+  <si>
+    <t>keyword filter (failed)</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,23 +434,38 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="9" fontId="14" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -917,7 +932,7 @@
   <dimension ref="B2:BQ34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="19.5"/>
@@ -939,22 +954,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:69" ht="16.5">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="2:69" ht="21" customHeight="1">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -990,16 +1005,16 @@
       </c>
     </row>
     <row r="4" spans="2:69" ht="18.75" customHeight="1">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="Q4" s="19" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="Q4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="19" t="s">
         <v>13</v>
       </c>
       <c r="AT4" s="1"/>
@@ -1009,10 +1024,10 @@
       <c r="AX4" s="1"/>
     </row>
     <row r="5" spans="2:69">
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="19" t="s">
         <v>14</v>
       </c>
       <c r="AT5" s="1"/>
@@ -1039,8 +1054,8 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="21"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="20"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
@@ -1112,16 +1127,16 @@
       <c r="T8" s="15">
         <v>12</v>
       </c>
-      <c r="U8" s="22">
+      <c r="U8" s="21">
         <v>13</v>
       </c>
-      <c r="V8" s="22">
+      <c r="V8" s="21">
         <v>14</v>
       </c>
-      <c r="W8" s="22">
+      <c r="W8" s="21">
         <v>15</v>
       </c>
-      <c r="X8" s="23">
+      <c r="X8" s="22">
         <v>16</v>
       </c>
       <c r="Y8" s="15">
@@ -1260,7 +1275,7 @@
     </row>
     <row r="9" spans="2:69" ht="18.95" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="16">
         <v>1</v>
@@ -1272,21 +1287,50 @@
         <v>1</v>
       </c>
       <c r="F9" s="16">
+        <v>3</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:69" s="28" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B10" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:69" ht="18.75" customHeight="1">
-      <c r="B10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="D10" s="25">
+        <v>4</v>
+      </c>
+      <c r="E10" s="25">
         <v>2</v>
       </c>
-      <c r="D10" s="16">
-        <v>4</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
     </row>
     <row r="11" spans="2:69" ht="18.95" customHeight="1">
       <c r="B11" s="11" t="s">
@@ -1298,8 +1342,15 @@
       <c r="D11" s="16">
         <v>4</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="16">
+        <v>3</v>
+      </c>
+      <c r="F11" s="16">
+        <v>2</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="12" spans="2:69" ht="18.95" customHeight="1">
       <c r="B12" s="11" t="s">
@@ -1365,16 +1416,16 @@
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
-      <c r="U16" s="19" t="s">
+      <c r="U16" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="V16" s="19" t="s">
+      <c r="V16" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="W16" s="19" t="s">
+      <c r="W16" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="X16" s="19" t="s">
+      <c r="X16" s="18" t="s">
         <v>5</v>
       </c>
     </row>

--- a/report/gantt.xlsx
+++ b/report/gantt.xlsx
@@ -449,23 +449,23 @@
     <xf numFmtId="3" fontId="15" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -932,7 +932,7 @@
   <dimension ref="B2:BQ34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="19.5"/>
@@ -954,22 +954,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:69" ht="16.5">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="2:69" ht="21" customHeight="1">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1005,12 +1005,12 @@
       </c>
     </row>
     <row r="4" spans="2:69" ht="18.75" customHeight="1">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="Q4" s="18" t="s">
         <v>4</v>
       </c>
@@ -1293,44 +1293,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:69" s="28" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="2:69" s="27" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>2</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <v>4</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>2</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26">
+      <c r="F10" s="24"/>
+      <c r="G10" s="25">
         <v>0</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
     </row>
     <row r="11" spans="2:69" ht="18.95" customHeight="1">
       <c r="B11" s="11" t="s">

--- a/report/gantt.xlsx
+++ b/report/gantt.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Plan</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>keyword filter (failed)</t>
+  </si>
+  <si>
+    <t>Testing set processing</t>
   </si>
 </sst>
 </file>
@@ -379,7 +382,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -429,9 +432,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -932,7 +932,7 @@
   <dimension ref="B2:BQ34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="19.5"/>
@@ -954,22 +954,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:69" ht="16.5">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="2:69" ht="21" customHeight="1">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1005,16 +1005,16 @@
       </c>
     </row>
     <row r="4" spans="2:69" ht="18.75" customHeight="1">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="Q4" s="18" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="Q4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="AT4" s="1"/>
@@ -1024,10 +1024,10 @@
       <c r="AX4" s="1"/>
     </row>
     <row r="5" spans="2:69">
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="AT5" s="1"/>
@@ -1054,8 +1054,8 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="20"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="19"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
@@ -1127,16 +1127,16 @@
       <c r="T8" s="15">
         <v>12</v>
       </c>
-      <c r="U8" s="21">
+      <c r="U8" s="20">
         <v>13</v>
       </c>
-      <c r="V8" s="21">
+      <c r="V8" s="20">
         <v>14</v>
       </c>
-      <c r="W8" s="21">
+      <c r="W8" s="20">
         <v>15</v>
       </c>
-      <c r="X8" s="22">
+      <c r="X8" s="21">
         <v>16</v>
       </c>
       <c r="Y8" s="15">
@@ -1293,44 +1293,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:69" s="27" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B10" s="23" t="s">
+    <row r="10" spans="2:69" s="26" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>2</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>4</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>2</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25">
+      <c r="F10" s="23"/>
+      <c r="G10" s="24">
         <v>0</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
     </row>
     <row r="11" spans="2:69" ht="18.95" customHeight="1">
       <c r="B11" s="11" t="s">
@@ -1349,191 +1349,200 @@
         <v>2</v>
       </c>
       <c r="G11" s="12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:69" ht="18.95" customHeight="1">
       <c r="B12" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="16">
         <v>5</v>
       </c>
       <c r="D12" s="16">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="E12" s="16">
+        <v>4</v>
+      </c>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="2:69" ht="18.95" customHeight="1">
       <c r="B13" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="2:69" ht="18.95" customHeight="1">
       <c r="B14" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
     <row r="15" spans="2:69" ht="18.95" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="16">
         <v>8</v>
       </c>
       <c r="D15" s="16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="2:69" ht="18.95" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="16">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D16" s="16">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
-      <c r="U16" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="V16" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="W16" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="X16" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="18.95" customHeight="1">
+    </row>
+    <row r="17" spans="2:24" ht="18.95" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="16">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D17" s="16">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="2:6" ht="18.95" customHeight="1">
+      <c r="U17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="X17" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" ht="18.95" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="16">
         <v>22</v>
       </c>
       <c r="D18" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="2:6" ht="18.95" customHeight="1">
-      <c r="C19" s="17"/>
-      <c r="D19" s="16"/>
+    <row r="19" spans="2:24" ht="18.95" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="16">
+        <v>22</v>
+      </c>
+      <c r="D19" s="16">
+        <v>2</v>
+      </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="2:6" ht="18.95" customHeight="1">
+    <row r="20" spans="2:24" ht="18.95" customHeight="1">
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="2:6" ht="18.95" customHeight="1">
+    <row r="21" spans="2:24" ht="18.95" customHeight="1">
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="2:6" ht="18.95" customHeight="1">
+    <row r="22" spans="2:24" ht="18.95" customHeight="1">
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="2:6" ht="18.95" customHeight="1">
+    <row r="23" spans="2:24" ht="18.95" customHeight="1">
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="2:6" ht="18.95" customHeight="1">
+    <row r="24" spans="2:24" ht="18.95" customHeight="1">
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="2:6" ht="18.95" customHeight="1">
+    <row r="25" spans="2:24" ht="18.95" customHeight="1">
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="2:6" ht="18.95" customHeight="1">
+    <row r="26" spans="2:24" ht="18.95" customHeight="1">
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="2:6" ht="18.95" customHeight="1">
+    <row r="27" spans="2:24" ht="18.95" customHeight="1">
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="2:6" ht="18.95" customHeight="1">
+    <row r="28" spans="2:24" ht="18.95" customHeight="1">
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="2:6" ht="18.95" customHeight="1">
+    <row r="29" spans="2:24" ht="18.95" customHeight="1">
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="2:6" ht="18.95" customHeight="1">
+    <row r="30" spans="2:24" ht="18.95" customHeight="1">
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="2:6" ht="18.95" customHeight="1">
+    <row r="31" spans="2:24" ht="18.95" customHeight="1">
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="2:6" ht="18.95" customHeight="1">
+    <row r="32" spans="2:24" ht="18.95" customHeight="1">
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
